--- a/src/template.xlsx
+++ b/src/template.xlsx
@@ -170,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -206,20 +206,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -250,7 +236,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,15 +289,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,7 +305,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -327,10 +313,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,59 +321,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,8 +365,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,10 +491,10 @@
       <c r="A10" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="17" t="str">
         <f aca="false">IF(E10-B10-(D10-C10) &gt; 0, E10-B10-(D10-C10), "")</f>
         <v/>
@@ -571,7 +513,7 @@
         <f aca="false">IF(E11-B11-(D11-C11) &gt; 0, E11-B11-(D11-C11), "")</f>
         <v/>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="n">
@@ -585,7 +527,7 @@
         <f aca="false">IF(E12-B12-(D12-C12) &gt; 0, E12-B12-(D12-C12), "")</f>
         <v/>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="n">
@@ -602,27 +544,27 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="14" t="str">
         <f aca="false">IF(E14-B14-(D14-C14) &gt; 0, E14-B14-(D14-C14), "")</f>
         <v/>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="14" t="str">
         <f aca="false">IF(E15-B15-(D15-C15) &gt; 0, E15-B15-(D15-C15), "")</f>
         <v/>
@@ -633,10 +575,10 @@
       <c r="A16" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="17" t="str">
         <f aca="false">IF(E16-B16-(D16-C16) &gt; 0, E16-B16-(D16-C16), "")</f>
         <v/>
@@ -647,38 +589,38 @@
       <c r="A17" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="17" t="str">
         <f aca="false">IF(E17-B17-(D17-C17) &gt; 0, E17-B17-(D17-C17), "")</f>
         <v/>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="17" t="str">
         <f aca="false">IF(E18-B18-(D18-C18) &gt; 0, E18-B18-(D18-C18), "")</f>
         <v/>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="17" t="str">
         <f aca="false">IF(E19-B19-(D19-C19) &gt; 0, E19-B19-(D19-C19), "")</f>
         <v/>
@@ -689,10 +631,10 @@
       <c r="A20" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="17" t="str">
         <f aca="false">IF(E20-B20-(D20-C20) &gt; 0, E20-B20-(D20-C20), "")</f>
         <v/>
@@ -700,7 +642,7 @@
       <c r="G20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="n">
+      <c r="A21" s="13" t="n">
         <v>14</v>
       </c>
       <c r="B21" s="14"/>
@@ -711,44 +653,44 @@
         <f aca="false">IF(E21-B21-(D21-C21) &gt; 0, E21-B21-(D21-C21), "")</f>
         <v/>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="n">
+      <c r="A22" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="14" t="str">
         <f aca="false">IF(E22-B22-(D22-C22) &gt; 0, E22-B22-(D22-C22), "")</f>
         <v/>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="17" t="str">
         <f aca="false">IF(E23-B23-(D23-C23) &gt; 0, E23-B23-(D23-C23), "")</f>
         <v/>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="17" t="str">
         <f aca="false">IF(E24-B24-(D24-C24) &gt; 0, E24-B24-(D24-C24), "")</f>
         <v/>
@@ -756,32 +698,32 @@
       <c r="G24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="n">
+      <c r="A25" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="17" t="str">
         <f aca="false">IF(E25-B25-(D25-C25) &gt; 0, E25-B25-(D25-C25), "")</f>
         <v/>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="17" t="str">
         <f aca="false">IF(E26-B26-(D26-C26) &gt; 0, E26-B26-(D26-C26), "")</f>
         <v/>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
@@ -798,7 +740,7 @@
       <c r="G27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="n">
+      <c r="A28" s="13" t="n">
         <v>21</v>
       </c>
       <c r="B28" s="14"/>
@@ -809,16 +751,16 @@
         <f aca="false">IF(E28-B28-(D28-C28) &gt; 0, E28-B28-(D28-C28), "")</f>
         <v/>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="n">
+      <c r="A29" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
         <f aca="false">IF(E29-B29-(D29-C29) &gt; 0, E29-B29-(D29-C29), "")</f>
         <v/>
@@ -829,10 +771,10 @@
       <c r="A30" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="17" t="str">
         <f aca="false">IF(E30-B30-(D30-C30) &gt; 0, E30-B30-(D30-C30), "")</f>
         <v/>
@@ -843,52 +785,52 @@
       <c r="A31" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="17" t="str">
         <f aca="false">IF(E31-B31-(D31-C31) &gt; 0, E31-B31-(D31-C31), "")</f>
         <v/>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="17" t="str">
         <f aca="false">IF(E32-B32-(D32-C32) &gt; 0, E32-B32-(D32-C32), "")</f>
         <v/>
       </c>
-      <c r="G32" s="20"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="n">
+      <c r="A33" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="17" t="str">
         <f aca="false">IF(E33-B33-(D33-C33) &gt; 0, E33-B33-(D33-C33), "")</f>
         <v/>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="17" t="str">
         <f aca="false">IF(E34-B34-(D34-C34) &gt; 0, E34-B34-(D34-C34), "")</f>
         <v/>
@@ -896,41 +838,41 @@
       <c r="G34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="n">
+      <c r="A35" s="13" t="n">
         <v>28</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
         <f aca="false">IF(E35-B35-(D35-C35) &gt; 0, E35-B35-(D35-C35), "")</f>
         <v/>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="n">
+      <c r="A36" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
         <f aca="false">IF(E36-B36-(D36-C36) &gt; 0, E36-B36-(D36-C36), "")</f>
         <v/>
       </c>
-      <c r="G36" s="26"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="17" t="str">
         <f aca="false">IF(E37-B37-(D37-C37) &gt; 0, E37-B37-(D37-C37), "")</f>
         <v/>
@@ -938,7 +880,7 @@
       <c r="G37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="n">
+      <c r="A38" s="16" t="n">
         <v>31</v>
       </c>
       <c r="B38" s="17"/>
@@ -949,33 +891,33 @@
         <f aca="false">IF(E38-B38-(D38-C38) &gt; 0, E38-B38-(D38-C38), "")</f>
         <v/>
       </c>
-      <c r="G38" s="32"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34" t="n">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23" t="n">
         <f aca="false">SUM(F8:F38)*24</f>
         <v>0</v>
       </c>
-      <c r="G39" s="35"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="37"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="2" t="s">
         <v>15</v>
       </c>

--- a/src/template.xlsx
+++ b/src/template.xlsx
@@ -365,8 +365,10 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -501,7 +503,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="n">
         <v>4</v>
       </c>
@@ -515,7 +517,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="n">
         <v>5</v>
       </c>
@@ -529,7 +531,7 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="n">
         <v>6</v>
       </c>
@@ -543,7 +545,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
         <v>7</v>
       </c>
@@ -557,7 +559,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>8</v>
       </c>
@@ -571,7 +573,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="n">
         <v>9</v>
       </c>
@@ -585,7 +587,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="n">
         <v>10</v>
       </c>
@@ -599,7 +601,7 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="n">
         <v>11</v>
       </c>
@@ -613,7 +615,7 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="n">
         <v>12</v>
       </c>
@@ -627,7 +629,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <v>13</v>
       </c>
@@ -641,7 +643,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
         <v>14</v>
       </c>
@@ -655,7 +657,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
         <v>15</v>
       </c>
@@ -669,7 +671,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="n">
         <v>16</v>
       </c>
@@ -683,7 +685,7 @@
       </c>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="n">
         <v>17</v>
       </c>
@@ -697,7 +699,7 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="n">
         <v>18</v>
       </c>
@@ -711,7 +713,7 @@
       </c>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="n">
         <v>19</v>
       </c>
@@ -725,7 +727,7 @@
       </c>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
         <v>20</v>
       </c>
@@ -739,7 +741,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="n">
         <v>21</v>
       </c>
@@ -753,7 +755,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
         <v>22</v>
       </c>
@@ -767,7 +769,7 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="n">
         <v>23</v>
       </c>
@@ -781,7 +783,7 @@
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="n">
         <v>24</v>
       </c>
@@ -795,7 +797,7 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="n">
         <v>25</v>
       </c>
@@ -809,7 +811,7 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="n">
         <v>26</v>
       </c>
@@ -823,7 +825,7 @@
       </c>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="n">
         <v>27</v>
       </c>
@@ -837,7 +839,7 @@
       </c>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
         <v>28</v>
       </c>
@@ -851,7 +853,7 @@
       </c>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
         <v>29</v>
       </c>
@@ -865,7 +867,7 @@
       </c>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="n">
         <v>30</v>
       </c>
@@ -879,7 +881,7 @@
       </c>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="n">
         <v>31</v>
       </c>
@@ -893,7 +895,7 @@
       </c>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="22" t="s">
         <v>12</v>
       </c>
